--- a/12/1/2/Trimestral 1993 a 2021 - Trimestral.xlsx
+++ b/12/1/2/Trimestral 1993 a 2021 - Trimestral.xlsx
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D100">
         <v>8.300000000000001</v>

--- a/12/1/2/Trimestral 1993 a 2021 - Trimestral.xlsx
+++ b/12/1/2/Trimestral 1993 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Serie</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2100,6 +2103,17 @@
       <c r="C115">
         <v>2.8</v>
       </c>
+      <c r="D115">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116">
+        <v>2.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
